--- a/biology/Botanique/Hyde_Park_(Sydney)/Hyde_Park_(Sydney).xlsx
+++ b/biology/Botanique/Hyde_Park_(Sydney)/Hyde_Park_(Sydney).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hyde Park est le plus ancien parc public d'Australie. D'une superficie de 16,2 hectares (40 acres), il se situe à Sydney, Nouvelle-Galles du Sud, près du quartier du centre d'affaires (CBD).
-Hyde Park contient jardins méticuleusement entretenus et environ 580 arbres ; un mélange de Ficus microcarpa (Hills Figs en anglais), d'Arecaceae (palmiers) (palms en anglais), et d'autres variétés[1],[2].
+Hyde Park contient jardins méticuleusement entretenus et environ 580 arbres ; un mélange de Ficus microcarpa (Hills Figs en anglais), d'Arecaceae (palmiers) (palms en anglais), et d'autres variétés,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyde Park a été nommé d'après l'original Hyde Park à Londres, Royaume-Uni.
 Dès les premiers jours de la fondation de la colonie, la zone ouverte au sud-est de celle-ci est un lieu de prédilection pour le sport et les loisirs. Cet endroit est connu sous les noms « The Common », le « Exercising Ground », le « Cricket Ground » et « Race Course » ou l’exercice, le cricket et la course étaient pratiqués.
@@ -546,11 +560,13 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste (non exhaustive) de certains monuments :
 Fontaine Archibald
-La pièce maîtresse de Hyde Park est la fontaine Archibald. La fontaine a été conçue par François-Léon Sicard et donné par J.F. Archibald en 1932 qui laissa en legs les fonds nécessaires à sa construction. Archibald précisa que la fontaine devait être conçue par un artiste français, en raison de sa passion pour la culture française et aussi pour commémorer l'alliance de l'Australie avec la France durant la première Guerre mondiale[3].
+La pièce maîtresse de Hyde Park est la fontaine Archibald. La fontaine a été conçue par François-Léon Sicard et donné par J.F. Archibald en 1932 qui laissa en legs les fonds nécessaires à sa construction. Archibald précisa que la fontaine devait être conçue par un artiste français, en raison de sa passion pour la culture française et aussi pour commémorer l'alliance de l'Australie avec la France durant la première Guerre mondiale.
 ANZAC War Memorial
 À l'extrémité sud du parc se trouve l'ANZAC War Memorial, mémorial de guerre complété en 1934, derrière le la « Lake of Reflections » ou « Pool of Remembrance » et les entrées à la station de métro « Museum ». Il a été érigé à la mémoire de la première Force impériale australienne, durant la Première Guerre mondiale.
 Hyde Park Obelisk
@@ -585,7 +601,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fontaine Archibald en 2006 peu après son inauguration (1932) - Détail. Collection photographique Tom Lennon, Powerhouse museum.
